--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15435" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -219,8 +220,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,10 +334,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -399,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,9 +432,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,6 +467,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,17 +643,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
@@ -662,18 +665,18 @@
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -682,18 +685,18 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -719,12 +722,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -744,12 +747,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -769,12 +772,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -794,31 +797,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -838,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -858,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -872,7 +875,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -886,7 +889,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -900,7 +903,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -920,7 +923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -940,7 +943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -954,7 +957,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -968,7 +971,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -982,7 +985,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1054,7 +1057,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1088,7 +1091,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1102,7 +1105,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1116,7 +1119,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1130,7 +1133,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1144,7 +1147,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75">
+    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -1206,7 +1209,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -1220,7 +1223,7 @@
       <c r="G47" s="7"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -1234,16 +1237,16 @@
       <c r="G48" s="7"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -1257,7 +1260,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -1271,16 +1274,16 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="10"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -1294,7 +1297,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -1308,7 +1311,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -1317,7 +1320,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -1357,16 +1360,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="10"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -1406,16 +1409,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="10"/>
+      <c r="G61" s="9"/>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -1429,7 +1432,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -1443,16 +1446,16 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -1492,16 +1495,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -1515,7 +1518,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>58</v>
       </c>
@@ -1529,16 +1532,16 @@
       <c r="G69" s="7"/>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>59</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -1578,16 +1581,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>61</v>
       </c>
@@ -1601,7 +1604,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>62</v>
       </c>
@@ -1615,16 +1618,16 @@
       <c r="G75" s="7"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>63</v>
       </c>
@@ -1655,24 +1658,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
   <si>
     <t>A faire</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Tous</t>
+  </si>
+  <si>
+    <t>Matte-hieux</t>
   </si>
 </sst>
 </file>
@@ -649,8 +652,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,7 +814,9 @@
         <v>4</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="5"/>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
   <si>
     <t>A faire</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Matte-hieux</t>
+  </si>
+  <si>
+    <t>Ewan</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,12 +873,14 @@
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="5"/>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -220,7 +220,7 @@
     <t>Matte-hieux</t>
   </si>
   <si>
-    <t>Ewan</t>
+    <t>Thomas</t>
   </si>
 </sst>
 </file>
@@ -655,8 +655,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
   <si>
     <t>A faire</t>
   </si>
@@ -217,10 +217,10 @@
     <t>Tous</t>
   </si>
   <si>
-    <t>Matte-hieux</t>
-  </si>
-  <si>
     <t>Thomas</t>
+  </si>
+  <si>
+    <t>Mathieu</t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,16 +813,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="F17" s="7">
+        <v>42640</v>
+      </c>
+      <c r="G17" s="7">
+        <v>42640</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -879,7 +885,7 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18645" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -220,7 +220,10 @@
     <t>Matte-hieux</t>
   </si>
   <si>
-    <t>Thomas</t>
+    <t>Ewan</t>
+  </si>
+  <si>
+    <t>T'aumat</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +882,7 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -903,12 +906,14 @@
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,14 +1102,16 @@
       <c r="A35" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="7">
+        <v>42640</v>
+      </c>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11055" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -655,8 +655,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,15 +880,17 @@
         <v>16</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E22" s="5" t="s">
         <v>66</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7">
+        <v>42640</v>
+      </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1097,14 +1099,16 @@
       <c r="A35" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="G35" s="7">
+        <v>42640</v>
+      </c>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
   <si>
     <t>A faire</t>
   </si>
@@ -655,8 +655,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1104,9 @@
       <c r="D35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="7">
         <v>42640</v>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11055" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="72">
   <si>
     <t>A faire</t>
   </si>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>Mathieu</t>
+  </si>
+  <si>
+    <t>Ewan</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -655,8 +667,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,13 +1005,17 @@
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="7">
+        <v>42640</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
@@ -1065,13 +1081,17 @@
       <c r="A33" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="7">
+        <v>42640</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11055" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -224,15 +224,6 @@
   </si>
   <si>
     <t>Ewan</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>U</t>
   </si>
 </sst>
 </file>
@@ -667,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,13 +982,17 @@
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="7">
+        <v>42647</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11055" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,7 +658,7 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -982,17 +982,13 @@
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="7">
-        <v>42647</v>
-      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
@@ -1001,10 +997,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E29" s="5" t="s">
         <v>67</v>
       </c>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -659,7 +659,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,12 +914,14 @@
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8745" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23115" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,14 +980,18 @@
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="7">
+        <v>42647</v>
+      </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1107,7 +1111,9 @@
       <c r="D35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="7">
         <v>42640</v>
@@ -1118,11 +1124,11 @@
       <c r="A36" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23115" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8745" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,30 +980,28 @@
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="7">
-        <v>42647</v>
-      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -1111,9 +1109,7 @@
       <c r="D35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="7">
         <v>42640</v>
@@ -1124,11 +1120,11 @@
       <c r="A36" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,7 +658,7 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -912,12 +912,14 @@
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -995,10 +997,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E29" s="5" t="s">
         <v>67</v>
       </c>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,14 +1128,18 @@
       <c r="A36" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="7">
+        <v>42647</v>
+      </c>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -659,7 +659,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,9 +1112,7 @@
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
         <v>68</v>
       </c>
@@ -1122,7 +1120,9 @@
       <c r="G35" s="7">
         <v>42640</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,16 +913,20 @@
         <v>18</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E24" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="7">
+        <v>42654</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -968,14 +972,18 @@
       <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="7">
+        <v>42654</v>
+      </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1129,10 +1137,10 @@
         <v>29</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E36" s="5" t="s">
         <v>68</v>
       </c>
@@ -1140,20 +1148,26 @@
       <c r="G36" s="7">
         <v>42647</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7">
+        <v>42654</v>
+      </c>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17460" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,10 +1157,10 @@
         <v>30</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E37" s="5" t="s">
         <v>68</v>
       </c>
@@ -1168,7 +1168,9 @@
       <c r="G37" s="7">
         <v>42654</v>
       </c>
-      <c r="H37" s="5"/>
+      <c r="H37" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17460" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22125" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,15 +1176,21 @@
       <c r="A38" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="5"/>
+      <c r="G38" s="7">
+        <v>42661</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22125" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18735" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -659,7 +659,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,10 +973,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E27" s="5" t="s">
         <v>66</v>
       </c>
@@ -984,7 +984,9 @@
       <c r="G27" s="7">
         <v>42654</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,14 +898,18 @@
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>42661</v>
+      </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,17 +892,19 @@
       <c r="G22" s="7">
         <v>42640</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
@@ -910,7 +912,9 @@
       <c r="G23" s="7">
         <v>42661</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1008,7 +1012,9 @@
       <c r="G28" s="7">
         <v>42647</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1023,8 +1029,12 @@
         <v>67</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="G29" s="7">
+        <v>42647</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1079,7 +1089,9 @@
         <v>35</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="7">
+        <v>42614</v>
+      </c>
       <c r="H32" s="5" t="s">
         <v>4</v>
       </c>
@@ -1097,8 +1109,12 @@
         <v>67</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="G33" s="7">
+        <v>42647</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1126,7 +1142,9 @@
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E35" s="5" t="s">
         <v>68</v>
       </c>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18735" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8940" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D35"/>
+  <oleSize ref="A42:K78"/>
 </workbook>
 </file>
 
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8940" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A42:K78"/>
+  <oleSize ref="A1:D35"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="7">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="7">
-        <v>42647</v>
+        <v>42654</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>4</v>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="7">
-        <v>42647</v>
+        <v>42661</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>4</v>
@@ -1220,15 +1220,21 @@
       <c r="A39" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="5"/>
+      <c r="G39" s="7">
+        <v>42661</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18735" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D35"/>
+  <oleSize ref="A42:K78"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="7">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="7">
-        <v>42654</v>
+        <v>42647</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>4</v>
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="7">

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18735" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,29 +1511,41 @@
       <c r="A62" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="D62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
+      <c r="G62" s="7">
+        <v>42682</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="G63" s="7">
+        <v>42682</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8835"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -659,7 +659,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,29 +1695,41 @@
       <c r="A74" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
+      <c r="D74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="5"/>
+      <c r="G74" s="7">
+        <v>42682</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="5"/>
+      <c r="G75" s="7">
+        <v>42682</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18735" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,13 +1339,17 @@
       <c r="A50" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="7"/>
+      <c r="E50" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="7">
+        <v>42689</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="5"/>
     </row>
@@ -1353,13 +1357,17 @@
       <c r="A51" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="7">
+        <v>42689</v>
+      </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
@@ -1376,13 +1384,17 @@
       <c r="A53" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="7">
+        <v>42689</v>
+      </c>
       <c r="G53" s="7"/>
       <c r="H53" s="5"/>
     </row>
@@ -1390,13 +1402,17 @@
       <c r="A54" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="7">
+        <v>42689</v>
+      </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="69">
   <si>
     <t>A faire</t>
   </si>
@@ -658,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,29 +1376,41 @@
       <c r="A53" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F53" s="5"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="5"/>
+      <c r="G53" s="7">
+        <v>42689</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="G54" s="7">
+        <v>42689</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>

--- a/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
+++ b/m.m2l.incomplet/gestion-projet/Liste des taches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="10410"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="70">
   <si>
     <t>A faire</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Thomas</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -658,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,12 +1342,14 @@
       <c r="A50" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="5"/>
@@ -1353,12 +1358,14 @@
       <c r="A51" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
